--- a/biology/Botanique/Glyceria_striata/Glyceria_striata.xlsx
+++ b/biology/Botanique/Glyceria_striata/Glyceria_striata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glyceria striata, la Glycérie striée en français, est une espèce de plantes herbacées de la famille des Poaceae (graminées).
-On considère que cette plante fait partie de la flore obsidionale de France[2]. Connue comme naturalisée en France depuis le XIXe siècle aux environs de Paris.
+On considère que cette plante fait partie de la flore obsidionale de France. Connue comme naturalisée en France depuis le XIXe siècle aux environs de Paris.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée de 30 cm à 1 m de haut. Epillets longs de 2 à 4 mm. Feuilles larges de 2 à 6 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bois clairs, lisières forestières, chemins forestiers sur sols plus ou moins humides.
 </t>
@@ -574,7 +590,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France l'espèce est classée NA (Non applicable) par l'UICN. Elle n'est pas soumise à évaluation car introduite récemment.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (21 février 2014)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 février 2014) (Attention liste brute contenant possiblement des synonymes) :
 Glyceria striata subsp. stricta (Scribn.) Hultén
 Glyceria striata var. mexicana Kelso
 Glyceria striata var. striata
